--- a/Current Output.xlsx
+++ b/Current Output.xlsx
@@ -521,7 +521,11 @@
           <t>MAT:001</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABDESSELAM NACIBA ABSENCE MALADIE R054 30,00 11 094,68 332 840,50</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>People Lead North Africa</t>
@@ -547,8 +551,16 @@
           <t>MAT:003</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AHMED BENYAHIA Hamza RETENUE SECU. SLE. R510 195 000,00 9,00 17 550,00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OPERATION MANAGER ASSISTANT PRIME DE PANIER R524 30 045,00</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -569,8 +581,16 @@
           <t>MAT:004</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MENDES NAZIHA PRI R304 8 278,13</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 5 979,11</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -591,8 +611,16 @@
           <t>MAT:005</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MENDAS KHADIDJA ABSENCE MALADIE R054 1,00 931,36 931,36</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Merchandiser PRI R304 6 162,37</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -613,8 +641,16 @@
           <t>MAT:019</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HACHOUR ABDELRAHIM BONUS R314 66 666,67</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CADRE FINANCIER RETENUE SECU. SLE. R510 161 730,90 9,00 14 555,78</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -635,8 +671,16 @@
           <t>MAT:029</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GHERNATI MOKHTAR EL AMIN ABSENCES NON AUTORISEE R038 1,00 931,36 931,36</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Merchandiser PRI R304 7 618,57</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -662,7 +706,11 @@
           <t>BOUCHENAK ABIR SARRA IND DE CONGE R100 17,00 931,36 15 833,04</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Merchandiser ABSENCE CONGE R107 17,00 931,36 15 833,04</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -688,7 +736,11 @@
           <t>KACIMI SALIM IND DE CONGE R100 15,00 931,36 13 970,33</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Merchandiser ABSENCE CONGE R107 15,00 931,36 13 970,33</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -714,7 +766,11 @@
           <t>AOUIR FAYCAL IND DE CONGE R100 15,00 931,36 13 970,33</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Merchandiser ABSENCE CONGE R107 15,00 931,36 13 970,33</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -740,7 +796,11 @@
           <t>BOULOUIZ MOHAMMED IND DE CONGE R100 15,00 931,36 13 970,33</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Merchandiser ABSENCE CONGE R107 15,00 931,36 13 970,33</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -766,7 +826,11 @@
           <t>MIHOUBI CHAKIB IND DE CONGE R100 10,00 1 558,48 15 584,80</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Superviseur ABSENCE CONGE R107 10,00 1 558,48 15 584,80</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -792,7 +856,11 @@
           <t>BENZOUAI MAHMOUD IND DE CONGE R100 10,00 931,36 9 313,55</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Merchandiser ABSENCE CONGE R107 10,00 931,36 9 313,55</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -813,8 +881,16 @@
           <t>MAT:119</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KAID AYMEN ABSENCES NON AUTORISEE R038 4,00 931,36 3 725,42</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 3 331,77</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -835,8 +911,16 @@
           <t>MAT:120</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BENSALAH SIF EL HAK BONUS R314 6 475,56</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Merchandiser RETENUE SECU. SLE. R510 27 940,66 9,00 2 514,66</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -857,8 +941,16 @@
           <t>MAT:121</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BOUKERZAZA MOULOUD PRI R304 8 281,10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 5 702,36</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -884,7 +976,11 @@
           <t>KIRATI YOUSSOUF IND DE CONGE R100 15,00 931,36 13 970,33</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Merchandiser ABSENCE CONGE R107 15,00 931,36 13 970,33</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -905,8 +1001,16 @@
           <t>MAT:130</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BOUTAL RABAH PRI R304 4 516,15</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 4 700,84</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -927,8 +1031,16 @@
           <t>MAT:134</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CHEBIRA AYYOUB PRI R304 7 227,03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 4 199,73</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -949,8 +1061,16 @@
           <t>MAT:139</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BELKHIRA BENDEHIBA PRI R304 6 021,54</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 5 312,09</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -971,8 +1091,16 @@
           <t>MAT:140</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CHOUI MUSTAPHA BILLEL PRI R304 6 021,54</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 5 688,92</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -993,8 +1121,16 @@
           <t>MAT:143</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AKCHICHE NOUR EDDINE PRI R304 22 580,77</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Superviseur RETENUE SECU. SLE. R510 69 335,17 9,00 6 240,17</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1015,8 +1151,16 @@
           <t>MAT:144</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MIMECHE MOHAMED ELYES PRI R304 8 429,56</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 5 670,41</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1042,7 +1186,11 @@
           <t>HARITI MOUFIDA IND DE CONGE R100 1,00 5 193,93 5 193,92</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PEOPLE CONSULTANT II ABSENCE CONGE R107 1,00 5 193,93 5 193,92</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1063,8 +1211,16 @@
           <t>MAT:1451</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HARITI MOUFIDA RETENUE SECU. SLE. R510 155 817,75 9,00 14 023,60</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PEOPLE CONSULTANT II PRIME DE PANIER R524 15 000,00</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1085,8 +1241,16 @@
           <t>MAT:148</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MOKHENFER KHALIL PRI R304 26 435,71</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Superviseur RETENUE SECU. SLE. R510 73 190,11 9,00 6 587,11</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1107,8 +1271,16 @@
           <t>MAT:150</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BEN AYACHE ABDELKADER PRI R304 21 104,29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Superviseur RETENUE SECU. SLE. R510 67 858,69 9,00 6 107,28</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1129,8 +1301,16 @@
           <t>MAT:153</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MOUSSA ISKANDAR ABSENCE MALADIE R054 1,00 931,36 931,36</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Merchandiser PRI R304 6 890,03</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1151,8 +1331,16 @@
           <t>MAT:155</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HARBACHE CHABANE ABSENCES NON AUTORISEE R038 4,00 931,36 3 725,42</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Merchandiser RETENUE SECU. SLE. R510 24 215,24 9,00 2 179,37</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1173,8 +1361,16 @@
           <t>MAT:157</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SEDDIKI CHOUKRI ABSENCES NON AUTORISEE R038 1,00 931,36 931,36</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 8 055,34</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1195,8 +1391,16 @@
           <t>MAT:158</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>KAMEL ANIS PRI R304 7 526,92</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 2 789,24</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -1217,8 +1421,16 @@
           <t>MAT:160</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BOUDRIA MOHAMED ABSENCES NON AUTORISEE R038 2,00 931,36 1 862,71</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 8 863,07</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -1239,8 +1451,16 @@
           <t>MAT:161</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BOURI YOUCEF PRI R304 7 526,92</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 4 500,79</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -1261,8 +1481,16 @@
           <t>MAT:162</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BOURALA ISLAM ABSENCES NON AUTORISEE R038 3,00 931,36 2 794,07</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 5 616,24</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -1283,8 +1511,16 @@
           <t>MAT:163</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>OURAD MOHAMED HICHEM ABSENCES NON AUTORISEE R038 3,00 931,36 2 794,07</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 2 905,36</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -1305,8 +1541,16 @@
           <t>MAT:164</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CHARABI HICHEM PRI R304 4 516,15</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 5 670,41</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -1327,8 +1571,16 @@
           <t>MAT:168</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BOUAZIZ MOHIE EDDINE ABSENCES NON AUTORISEE R038 1,00 931,36 931,36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 8 054,36</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -1349,8 +1601,16 @@
           <t>MAT:170</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>LEBID SOFIANE ABSENCE MALADIE R054 10,00 931,36 9 313,55</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER RETENUE SECU. SLE. R510 18 627,11 9,00 1 676,44</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
@@ -1371,8 +1631,16 @@
           <t>MAT:181</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BENMILOUD MANIL ILHAN PRI R304 22 441,65</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Superviseur RETENUE SECU. SLE. R510 69 196,05 9,00 6 227,64</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -1393,8 +1661,16 @@
           <t>MAT:182</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BOUZEGHOUB AISSAM RETENUE SECU. SLE. R510 27 940,66 9,00 2 514,66</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRIME DE PANIER R524 1 499,24</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -1415,8 +1691,16 @@
           <t>MAT:183</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FARES NAZIM PRI R304 8 281,10</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 6 088,60</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
@@ -1442,7 +1726,11 @@
           <t>MEHDI SOFIANE ABDERAOUF IND DE CONGE R100 1,00 883,41 883,41</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>HR Intern ABSENCE CONGE R107 1,00 883,41 883,41</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -1463,8 +1751,16 @@
           <t>MAT:185</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ABID CHAHIR MOHAMED PRI R304 8 732,42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 7 199,44</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -1485,8 +1781,16 @@
           <t>MAT:187</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BELHARDI HICHEM PRI R304 8 281,10</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 6 088,59</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -1507,8 +1811,16 @@
           <t>MAT:188</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DJAMOUH WALID ISLAM ABSENCES NON AUTORISEE R038 3,00 931,36 2 794,07</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 6 194,20</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
@@ -1529,8 +1841,16 @@
           <t>MAT:189</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MANCER FOUAD PRI R304 8 281,10</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 6 088,62</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
@@ -1551,8 +1871,16 @@
           <t>MAT:190</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ABABSA AHMED RAMI PRI R304 6 021,54</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 6 091,62</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -1573,8 +1901,16 @@
           <t>MAT:192</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BOULOUH BILAL ABSENCES NON AUTORISEE R038 1,00 931,36 931,36</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 8 055,34</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
@@ -1595,8 +1931,16 @@
           <t>MAT:193</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BOUFENGHOUR MOHAMED SALAH PRI R304 9 032,31</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 6 088,62</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
@@ -1617,8 +1961,16 @@
           <t>MAT:194</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BAKOUR ABDELHALIM PRI R304 9 032,31</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 6 088,62</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
@@ -1639,8 +1991,16 @@
           <t>MAT:195</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SEBIT SOUHEIB ABSENCES NON AUTORISEE R038 2,00 931,36 1 862,71</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 3 441,31</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
@@ -1661,8 +2021,16 @@
           <t>MAT:196</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RAMI NASSIM ABSENCES NON AUTORISEE R038 1,00 931,36 931,36</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 8 419,49</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
@@ -1683,8 +2051,16 @@
           <t>MAT:1961</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CHAIB ANOUAR ABSENCES NON AUTORISEE R038 1,00 931,36 931,36</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 7 328,38</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
@@ -1705,8 +2081,16 @@
           <t>MAT:197</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AMEUR MOHAMED EL AMIN ABSENCES NON AUTORISEE R038 3,00 931,36 2 794,07</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 6 291,74</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
@@ -1757,8 +2141,16 @@
           <t>MAT:199</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CHENAFI HACENE ABSENCES NON AUTORISEE R038 1,00 931,36 931,36</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRI R304 2 232,74</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
@@ -1779,8 +2171,16 @@
           <t>MAT:200</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TURKI OUBEID ALLAH MEHDI RETENUE SECU. SLE. R510 27 940,66 9,00 2 514,66</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER PRIME DE PANIER R524 1 499,24</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -1801,8 +2201,16 @@
           <t>MAT:202</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BOUARABA SARAH PRI R304 15 648,79</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>IT Intern BONUS R314 17 777,78</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
@@ -1823,8 +2231,16 @@
           <t>MAT:203</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BEN MERABET AMINE BONUS R314 7 917,44</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER RETENUE SECU. SLE. R510 27 940,66 9,00 2 514,66</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
@@ -1845,8 +2261,16 @@
           <t>MAT:204</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MEHALHAL DJAMEL YOUCEF PRI R304 4 516,15</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 3 473,00</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
@@ -1867,8 +2291,16 @@
           <t>MAT:205</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>HAMZI LOKMANE RETENUE SECU. SLE. R510 146 565,81 9,00 13 190,92</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CADRE FINANCIER PRIME DE PANIER R524 7 683,11</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
@@ -1894,7 +2326,11 @@
           <t>HACHEROUF YOUCEF INDEMNITE DE CONGE STC R069 931,36 2 328,40</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER BONUS R314 13 435,46</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
@@ -1915,8 +2351,16 @@
           <t>MAT:207</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ESSETITI NAIL BONUS R314 18 028,04</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER RETENUE SECU. SLE. R510 27 940,66 9,00 2 514,66</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
@@ -1937,8 +2381,16 @@
           <t>MAT:208</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>EL HABIB MOHAMED OMAR ABSENCES NON AUTORISEE R038 2,00 971,95 1 943,90</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 20 442,11</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
@@ -1959,8 +2411,16 @@
           <t>MAT:209</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SELMANI MOHAMED AMINE ABSENCES NON AUTORISEE R038 3,00 971,95 2 915,85</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 19 586,86</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
@@ -1981,8 +2441,16 @@
           <t>MAT:210</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>OSMANE ELHABIB BONUS R314 20 442,11</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Merchandiser RETENUE SECU. SLE. R510 29 158,46 9,00 2 624,26</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
@@ -2003,8 +2471,16 @@
           <t>MAT:211</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DAHMANI MOKHTAR BONUS R314 20 442,11</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Merchandiser RETENUE SECU. SLE. R510 29 158,46 9,00 2 624,26</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
@@ -2025,8 +2501,16 @@
           <t>MAT:214</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CHADLI CHEMS EDDINE BONUS R314 20 442,11</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Merchandiser RETENUE SECU. SLE. R510 29 158,46 9,00 2 624,26</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
@@ -2047,8 +2531,16 @@
           <t>MAT:215</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BOUZAR ABABOU RACHID BONUS R314 36 252,22</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Merchandiser RETENUE SECU. SLE. R510 29 158,46 9,00 2 624,26</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
@@ -2069,8 +2561,16 @@
           <t>MAT:216</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CHERIF MOHAMED RETENUE SECU. SLE. R510 30 577,03 9,00 2 751,93</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Junior Supervisor PRIME DE PANIER R524 8 211,23</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
@@ -2091,8 +2591,16 @@
           <t>MAT:217</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BOUTBICI WALID NADIR RETENUE SECU. SLE. R510 30 577,03 9,00 2 751,93</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Junior Supervisor PRIME DE PANIER R524 8 211,23</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
@@ -2113,8 +2621,16 @@
           <t>MAT:218</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GALEZE DJAMEL ABSENCES NON AUTORISEE R038 2,00 971,95 1 943,90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Merchandiser BONUS R314 8 298,72</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
@@ -2135,8 +2651,16 @@
           <t>MAT:219</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>KHECHA MOHAMMED SADEK SALAIRE DE BASE (R+) M030 14 134,57</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Merchandiser PRI R304 30 178,07</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
@@ -2187,8 +2711,16 @@
           <t>MAT:221</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BELARBI SOFIANE ABSENCES NON AUTORISEE R038 5,00 971,95 4 859,74</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Merchandiser RETENUE SECU. SLE. R510 24 298,72 9,00 2 186,88</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
@@ -2209,8 +2741,16 @@
           <t>MAT:222</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FODIL BOURAS NOUR SALIMA ABSENCE MALADIE R054 3,00 883,41 2 650,23</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>IT Intern PRI R304 12 996,49</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
@@ -2236,7 +2776,11 @@
           <t>MESSABIH AYOUB JOURS NON TRAVAILLES R052 9,00 931,36 8 382,20</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>GA MARCHANDISER RETENUE SECU. SLE. R510 19 558,46 9,00 1 760,26</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
